--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_25_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_25_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>706550.2304198308</v>
+        <v>720276.5885572487</v>
       </c>
     </row>
     <row r="7">
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614457.2540377786</v>
+        <v>614457.2540377785</v>
       </c>
       <c r="C2" t="n">
-        <v>614457.2540377788</v>
+        <v>614457.2540377787</v>
       </c>
       <c r="D2" t="n">
         <v>614457.2540377788</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="C4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
         <v>79636.80000449967</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>113213.6941060473</v>
+        <v>113213.6941060472</v>
       </c>
       <c r="C6" t="n">
-        <v>113213.6941060476</v>
+        <v>113213.6941060475</v>
       </c>
       <c r="D6" t="n">
         <v>113213.6941060476</v>
       </c>
       <c r="E6" t="n">
-        <v>-44867.58988471259</v>
+        <v>-44867.58988471264</v>
       </c>
       <c r="F6" t="n">
         <v>88232.41011528742</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_25_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_25_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720276.5885572487</v>
+        <v>636491.186795624</v>
       </c>
     </row>
     <row r="7">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614457.2540377785</v>
+        <v>614457.2540377788</v>
       </c>
       <c r="C2" t="n">
         <v>614457.2540377787</v>
       </c>
       <c r="D2" t="n">
-        <v>614457.2540377788</v>
+        <v>614457.2540377786</v>
       </c>
       <c r="E2" t="n">
         <v>171480.8222247954</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>113213.6941060472</v>
+        <v>113169.5583273665</v>
       </c>
       <c r="C6" t="n">
-        <v>113213.6941060475</v>
+        <v>113169.5583273664</v>
       </c>
       <c r="D6" t="n">
-        <v>113213.6941060476</v>
+        <v>113169.5583273662</v>
       </c>
       <c r="E6" t="n">
-        <v>-44867.58988471264</v>
+        <v>-59677.60672382655</v>
       </c>
       <c r="F6" t="n">
-        <v>88232.41011528742</v>
+        <v>73422.39327617352</v>
       </c>
       <c r="G6" t="n">
-        <v>88232.41011528742</v>
+        <v>73422.39327617352</v>
       </c>
       <c r="H6" t="n">
-        <v>88232.41011528742</v>
+        <v>73422.39327617352</v>
       </c>
       <c r="I6" t="n">
-        <v>88232.41011528742</v>
+        <v>73422.39327617352</v>
       </c>
       <c r="J6" t="n">
-        <v>88232.41011528742</v>
+        <v>73422.39327617352</v>
       </c>
       <c r="K6" t="n">
-        <v>88232.41011528742</v>
+        <v>73422.39327617352</v>
       </c>
       <c r="L6" t="n">
-        <v>88232.41011528742</v>
+        <v>73422.39327617352</v>
       </c>
       <c r="M6" t="n">
-        <v>88232.41011528742</v>
+        <v>73422.39327617352</v>
       </c>
       <c r="N6" t="n">
-        <v>88232.41011528742</v>
+        <v>73422.39327617352</v>
       </c>
       <c r="O6" t="n">
-        <v>88232.41011528742</v>
+        <v>73422.39327617352</v>
       </c>
       <c r="P6" t="n">
-        <v>88232.41011528742</v>
+        <v>73422.39327617352</v>
       </c>
     </row>
   </sheetData>
